--- a/data/trans_orig/Q5415-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q5415-Habitat-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6699</v>
+        <v>6651</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01647597922743393</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05826203561158254</v>
+        <v>0.05783694232288601</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -765,19 +765,19 @@
         <v>5798</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2288</v>
+        <v>2310</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12683</v>
+        <v>12680</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03877450580266148</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01530362608989893</v>
+        <v>0.01545121314193435</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08481440450881454</v>
+        <v>0.08479602031025998</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -786,19 +786,19 @@
         <v>7693</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3247</v>
+        <v>3317</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>15068</v>
+        <v>15808</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0290813201603429</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01227398400048445</v>
+        <v>0.01253848038250524</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05696356062431556</v>
+        <v>0.05975839760717167</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>9372</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4598</v>
+        <v>4877</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>15930</v>
+        <v>16052</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.08150123314094257</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0399851803000162</v>
+        <v>0.04241472562122922</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1385338017540905</v>
+        <v>0.1395964575135141</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>11</v>
@@ -836,19 +836,19 @@
         <v>11549</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5986</v>
+        <v>5857</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>18983</v>
+        <v>19859</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07722942228514636</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04003184657492611</v>
+        <v>0.03917016723410696</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.126947337986963</v>
+        <v>0.1328068033918255</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>21</v>
@@ -857,19 +857,19 @@
         <v>20920</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>13632</v>
+        <v>13095</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>30896</v>
+        <v>30734</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.07908638155617308</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05153458947331302</v>
+        <v>0.04950335796745538</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1167968895407632</v>
+        <v>0.1161854297708605</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>103723</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>96335</v>
+        <v>96947</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>109288</v>
+        <v>108563</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9020227876316235</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8377744421948764</v>
+        <v>0.843095071615839</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9504225910872013</v>
+        <v>0.9441152077550539</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>135</v>
@@ -907,19 +907,19 @@
         <v>132188</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>122614</v>
+        <v>122709</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>139043</v>
+        <v>139406</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.8839960719121922</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8199695614085255</v>
+        <v>0.8206012836638089</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9298336597021043</v>
+        <v>0.9322653074812414</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>242</v>
@@ -928,19 +928,19 @@
         <v>235911</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>224065</v>
+        <v>223212</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>244580</v>
+        <v>244770</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.891832298283484</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8470500244164766</v>
+        <v>0.8438245136256695</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9246026710692582</v>
+        <v>0.9253211969003439</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>2959</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>860</v>
+        <v>868</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>7416</v>
+        <v>8186</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02027915098105607</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.005896709531036914</v>
+        <v>0.005951082421483521</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.05083600506997826</v>
+        <v>0.05611026325323965</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>8</v>
@@ -1053,19 +1053,19 @@
         <v>7464</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>3180</v>
+        <v>3052</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>14176</v>
+        <v>14721</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.04085616898541283</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01740833409882193</v>
+        <v>0.01670516352415454</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.07760279108903205</v>
+        <v>0.08058569937396194</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>11</v>
@@ -1074,19 +1074,19 @@
         <v>10422</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>5235</v>
+        <v>5193</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>18984</v>
+        <v>18209</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.03171969446208575</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01593250197643937</v>
+        <v>0.01580475219304783</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.05777805058403102</v>
+        <v>0.05541922751141985</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>10588</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5696</v>
+        <v>5449</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>17831</v>
+        <v>18366</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.07257237049951158</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.03904003669279983</v>
+        <v>0.03735350136518577</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1222248159332801</v>
+        <v>0.1258879918029266</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>14</v>
@@ -1124,19 +1124,19 @@
         <v>15538</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>8950</v>
+        <v>9293</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>24869</v>
+        <v>25744</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.08505744674033994</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.04899073339011255</v>
+        <v>0.05087102773638498</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1361346456009717</v>
+        <v>0.1409249593754158</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>25</v>
@@ -1145,19 +1145,19 @@
         <v>26126</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>17301</v>
+        <v>17899</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>37037</v>
+        <v>37456</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.07951390389210156</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.05265665596112573</v>
+        <v>0.05447720212534698</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.112722670428216</v>
+        <v>0.1139982418140734</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>132343</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>124609</v>
+        <v>124317</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>137608</v>
+        <v>138227</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9071484785194324</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8541324857522665</v>
+        <v>0.8521311634501018</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9432385774271806</v>
+        <v>0.9474838271642801</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>148</v>
@@ -1195,19 +1195,19 @@
         <v>159678</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>149655</v>
+        <v>147323</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>168059</v>
+        <v>167567</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8740863842742472</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8192218406289142</v>
+        <v>0.8064541232537511</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9199634015049034</v>
+        <v>0.9172700420063206</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>280</v>
@@ -1216,19 +1216,19 @@
         <v>292020</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>279341</v>
+        <v>280236</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>302353</v>
+        <v>302634</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8887664016458127</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8501761222800562</v>
+        <v>0.852901287358952</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9202157482853563</v>
+        <v>0.9210688147628681</v>
       </c>
     </row>
     <row r="11">
@@ -1333,19 +1333,19 @@
         <v>9478</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>4829</v>
+        <v>5017</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>17018</v>
+        <v>16773</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.06976759959061211</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03554415726733659</v>
+        <v>0.03693262787402706</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1252722083776193</v>
+        <v>0.1234686770187787</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>9</v>
@@ -1354,19 +1354,19 @@
         <v>9478</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>4731</v>
+        <v>4440</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>17267</v>
+        <v>17236</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03945500748176215</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01969640157055217</v>
+        <v>0.0184844319200371</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.07188089126781048</v>
+        <v>0.07175135645623465</v>
       </c>
     </row>
     <row r="13">
@@ -1383,19 +1383,19 @@
         <v>6219</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2635</v>
+        <v>2706</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>11770</v>
+        <v>12397</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0595895035274132</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0252439738211989</v>
+        <v>0.02593119737684445</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1127739207658124</v>
+        <v>0.1187768427133414</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>6</v>
@@ -1404,19 +1404,19 @@
         <v>6492</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2584</v>
+        <v>2327</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>13251</v>
+        <v>13237</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04778473215015801</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01902254815834125</v>
+        <v>0.01712810639767014</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09753863578426014</v>
+        <v>0.0974377147718213</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>13</v>
@@ -1425,19 +1425,19 @@
         <v>12711</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>7140</v>
+        <v>7070</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>20871</v>
+        <v>21401</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05291366337033308</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02972327744381214</v>
+        <v>0.02942955210534372</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08688264328776232</v>
+        <v>0.08909070756146908</v>
       </c>
     </row>
     <row r="14">
@@ -1454,19 +1454,19 @@
         <v>98152</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>92601</v>
+        <v>91974</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>101736</v>
+        <v>101665</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9404104964725868</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8872260792341875</v>
+        <v>0.8812231572866586</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9747560261788011</v>
+        <v>0.9740688026231555</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>125</v>
@@ -1475,19 +1475,19 @@
         <v>119881</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>111065</v>
+        <v>111486</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>126020</v>
+        <v>126401</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8824476682592298</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8175531487634641</v>
+        <v>0.820657718106713</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9276397727022687</v>
+        <v>0.9304475016688393</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>220</v>
@@ -1496,19 +1496,19 @@
         <v>218032</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>207582</v>
+        <v>208517</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>225742</v>
+        <v>225655</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9076313291479048</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8641297883393433</v>
+        <v>0.8680228808746391</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9397272349279955</v>
+        <v>0.9393643083523237</v>
       </c>
     </row>
     <row r="15">
@@ -1600,19 +1600,19 @@
         <v>2490</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>809</v>
+        <v>815</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6392</v>
+        <v>7243</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01814969539154238</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.005895698300900796</v>
+        <v>0.005938692940371869</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04658327405063046</v>
+        <v>0.05278371037332278</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -1621,19 +1621,19 @@
         <v>8514</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4150</v>
+        <v>3246</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>15394</v>
+        <v>16083</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0407790965014091</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01987985441861808</v>
+        <v>0.01554625882737652</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07373495762542961</v>
+        <v>0.07703529809742658</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>11</v>
@@ -1642,19 +1642,19 @@
         <v>11004</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5981</v>
+        <v>6094</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>19363</v>
+        <v>19766</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03180454692509736</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01728650071799956</v>
+        <v>0.01761380511282377</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05596296176459763</v>
+        <v>0.05712909388741393</v>
       </c>
     </row>
     <row r="17">
@@ -1671,19 +1671,19 @@
         <v>4124</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1600</v>
+        <v>1641</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>9003</v>
+        <v>9145</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.03005672051336332</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01166022793461134</v>
+        <v>0.01195774363451718</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06561191526054672</v>
+        <v>0.06664946204428474</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>19</v>
@@ -1692,19 +1692,19 @@
         <v>20647</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>13017</v>
+        <v>12953</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>31138</v>
+        <v>30607</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.09889447584545284</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0623479675917574</v>
+        <v>0.06204393691090493</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1491434067397069</v>
+        <v>0.1466032036132946</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>24</v>
@@ -1713,19 +1713,19 @@
         <v>24771</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>15978</v>
+        <v>16550</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>35020</v>
+        <v>36191</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.07159424615972375</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04617858731888421</v>
+        <v>0.04783269723426017</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1012166133703258</v>
+        <v>0.1045994530279245</v>
       </c>
     </row>
     <row r="18">
@@ -1742,19 +1742,19 @@
         <v>130602</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>124891</v>
+        <v>125153</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>134350</v>
+        <v>133961</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9517935840950943</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9101695512981569</v>
+        <v>0.9120793242242522</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9791091018504718</v>
+        <v>0.9762703964214905</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>173</v>
@@ -1763,19 +1763,19 @@
         <v>179616</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>168339</v>
+        <v>169001</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>189058</v>
+        <v>189111</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.860326427653138</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8063120666375676</v>
+        <v>0.8094820627115037</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9055513359258096</v>
+        <v>0.9058030046643761</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>321</v>
@@ -1784,19 +1784,19 @@
         <v>310220</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>298097</v>
+        <v>297915</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>320731</v>
+        <v>320126</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8966012069151789</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8615656639867744</v>
+        <v>0.8610396600832465</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.926981069622149</v>
+        <v>0.9252340856884715</v>
       </c>
     </row>
     <row r="19">
@@ -1888,19 +1888,19 @@
         <v>7344</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2856</v>
+        <v>3512</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>14771</v>
+        <v>13499</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01461493619098414</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.005683176629207141</v>
+        <v>0.006990232245534049</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02939722743494017</v>
+        <v>0.02686600697305869</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>30</v>
@@ -1909,19 +1909,19 @@
         <v>31253</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>20943</v>
+        <v>20993</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>44553</v>
+        <v>43463</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.04617533731179114</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.03094195604695566</v>
+        <v>0.03101566690937876</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.06582499424585062</v>
+        <v>0.06421435391764306</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>38</v>
@@ -1930,19 +1930,19 @@
         <v>38597</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>27882</v>
+        <v>27584</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>53861</v>
+        <v>52078</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0327284441877316</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.02364271731298364</v>
+        <v>0.02338981284633043</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.04567174519857223</v>
+        <v>0.04415980659733689</v>
       </c>
     </row>
     <row r="21">
@@ -1959,19 +1959,19 @@
         <v>30303</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>21130</v>
+        <v>22376</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>40417</v>
+        <v>42056</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.06030845733671672</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.04205260445069006</v>
+        <v>0.04453212912544078</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.0804378692588739</v>
+        <v>0.08369858104298319</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>50</v>
@@ -1980,19 +1980,19 @@
         <v>54225</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>41400</v>
+        <v>41935</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>69148</v>
+        <v>71939</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.08011508738320543</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.06116622583955018</v>
+        <v>0.06195647416248223</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1021634206189723</v>
+        <v>0.1062863539250895</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>83</v>
@@ -2001,19 +2001,19 @@
         <v>84528</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>68025</v>
+        <v>67625</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>103462</v>
+        <v>102420</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.07167610600386769</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.05768212417657359</v>
+        <v>0.05734327737280949</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.08773091993365999</v>
+        <v>0.08684753945659623</v>
       </c>
     </row>
     <row r="22">
@@ -2030,19 +2030,19 @@
         <v>464820</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>453051</v>
+        <v>451397</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>474824</v>
+        <v>473541</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9250766064722992</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9016555767652056</v>
+        <v>0.8983638754223793</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9449868527832386</v>
+        <v>0.9424334988480441</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>581</v>
@@ -2051,19 +2051,19 @@
         <v>591363</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>572520</v>
+        <v>571277</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>608416</v>
+        <v>606747</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8737095753050035</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8458693810000837</v>
+        <v>0.8440332120485716</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8989041520112391</v>
+        <v>0.8964377561869297</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1063</v>
@@ -2072,19 +2072,19 @@
         <v>1056183</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1032622</v>
+        <v>1033966</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1075552</v>
+        <v>1076477</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8955954498084007</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8756170014015632</v>
+        <v>0.8767565436789442</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9120192589813941</v>
+        <v>0.9128040430903819</v>
       </c>
     </row>
     <row r="23">
@@ -2416,19 +2416,19 @@
         <v>3091</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9440</v>
+        <v>8075</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02214827631120496</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.006855454862162778</v>
+        <v>0.006875649922218702</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06765051177205628</v>
+        <v>0.05786301825603621</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -2437,19 +2437,19 @@
         <v>12731</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7203</v>
+        <v>6824</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>21380</v>
+        <v>21428</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07633252962720231</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04318649050538691</v>
+        <v>0.04091458981465041</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1281881192529161</v>
+        <v>0.1284731739403246</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>15</v>
@@ -2458,19 +2458,19 @@
         <v>15822</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>9181</v>
+        <v>9427</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>25403</v>
+        <v>25047</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05164944084756044</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02997166145362563</v>
+        <v>0.03077388894924241</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08292598148063555</v>
+        <v>0.08176358952988687</v>
       </c>
     </row>
     <row r="5">
@@ -2487,19 +2487,19 @@
         <v>5211</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1993</v>
+        <v>1989</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>11868</v>
+        <v>11597</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03734246603376697</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01427922220428147</v>
+        <v>0.01425549840618788</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.08504692709744927</v>
+        <v>0.08310738734275579</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>13</v>
@@ -2508,19 +2508,19 @@
         <v>15069</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>8247</v>
+        <v>8504</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>24036</v>
+        <v>24128</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.09035124630562261</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04944796684314893</v>
+        <v>0.05099006263678144</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.14411333696925</v>
+        <v>0.1446636060190503</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>18</v>
@@ -2529,19 +2529,19 @@
         <v>20280</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>12023</v>
+        <v>12642</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>30431</v>
+        <v>31097</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06620363238686729</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03924907641300016</v>
+        <v>0.0412686522012673</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.09933854117577801</v>
+        <v>0.1015121598242976</v>
       </c>
     </row>
     <row r="6">
@@ -2558,19 +2558,19 @@
         <v>131245</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>123269</v>
+        <v>123355</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>135547</v>
+        <v>135567</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9405092576550281</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8833535790684667</v>
+        <v>0.8839641409010631</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9713392630044911</v>
+        <v>0.9714813512321379</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>132</v>
@@ -2579,19 +2579,19 @@
         <v>138986</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>126674</v>
+        <v>127957</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>148147</v>
+        <v>148179</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.8333162240671751</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.7594979869695524</v>
+        <v>0.7671898483582976</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.888240602214405</v>
+        <v>0.8884320434906867</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>253</v>
@@ -2600,19 +2600,19 @@
         <v>270232</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>257374</v>
+        <v>257986</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>281409</v>
+        <v>280867</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.8821469267655723</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8401751428301423</v>
+        <v>0.8421709639487478</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9186332044855133</v>
+        <v>0.9168650993657329</v>
       </c>
     </row>
     <row r="7">
@@ -2704,19 +2704,19 @@
         <v>7443</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3051</v>
+        <v>3170</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>14134</v>
+        <v>14356</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.04805659700951104</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01969634330052192</v>
+        <v>0.02046866967939016</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.09126014966410613</v>
+        <v>0.09269017720527399</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>20</v>
@@ -2725,19 +2725,19 @@
         <v>22911</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>14731</v>
+        <v>14615</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>33819</v>
+        <v>32891</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1196916266832503</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.07695828165564468</v>
+        <v>0.07635023755929121</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1766756648962834</v>
+        <v>0.1718289089687846</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>27</v>
@@ -2746,19 +2746,19 @@
         <v>30354</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>19975</v>
+        <v>20748</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>42789</v>
+        <v>43385</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.08765363197346386</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.0576804802942687</v>
+        <v>0.05991312142897613</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1235612607326744</v>
+        <v>0.1252813700493982</v>
       </c>
     </row>
     <row r="9">
@@ -2775,19 +2775,19 @@
         <v>13077</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>6813</v>
+        <v>6782</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>22079</v>
+        <v>22764</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.08443229540309269</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.04398857254441722</v>
+        <v>0.04378950505514249</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1425551387832488</v>
+        <v>0.1469790791013096</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>21</v>
@@ -2796,19 +2796,19 @@
         <v>23085</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>15240</v>
+        <v>14954</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>34212</v>
+        <v>33166</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.120598476821476</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.07961617376056179</v>
+        <v>0.07812158840532824</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1787271306320986</v>
+        <v>0.1732625871986849</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>32</v>
@@ -2817,19 +2817,19 @@
         <v>36162</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>25347</v>
+        <v>25570</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>48552</v>
+        <v>49313</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.104423542097046</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.07319517471009741</v>
+        <v>0.0738378986708072</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1402022964842417</v>
+        <v>0.1424017472651363</v>
       </c>
     </row>
     <row r="10">
@@ -2846,19 +2846,19 @@
         <v>134358</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>123103</v>
+        <v>123926</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>141823</v>
+        <v>141830</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8675111075873962</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7948406741546623</v>
+        <v>0.8001535087069537</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9157088823841244</v>
+        <v>0.9157500499802191</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>136</v>
@@ -2867,19 +2867,19 @@
         <v>145424</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>132414</v>
+        <v>132131</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>156914</v>
+        <v>155926</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7597098964952737</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6917478166921374</v>
+        <v>0.6902683975016093</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8197352399531014</v>
+        <v>0.8145766340595991</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>256</v>
@@ -2888,19 +2888,19 @@
         <v>279782</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>263535</v>
+        <v>263102</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>293377</v>
+        <v>293091</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8079228259294902</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7610077013701479</v>
+        <v>0.7597549655611486</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.847181237327492</v>
+        <v>0.8463541734054171</v>
       </c>
     </row>
     <row r="11">
@@ -2992,19 +2992,19 @@
         <v>7657</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2248</v>
+        <v>2285</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>16503</v>
+        <v>17810</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.07390631737867756</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02169518029334379</v>
+        <v>0.02205918287855573</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1592942444779996</v>
+        <v>0.1719144117081778</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>16</v>
@@ -3013,19 +3013,19 @@
         <v>18416</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>11555</v>
+        <v>10717</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>28555</v>
+        <v>27888</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1305957349109301</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.08194052733945516</v>
+        <v>0.07599821063365787</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2024885370986229</v>
+        <v>0.1977584667409283</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>21</v>
@@ -3034,19 +3034,19 @@
         <v>26073</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>17162</v>
+        <v>17510</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>39456</v>
+        <v>38436</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1065870797935284</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.07015744495360547</v>
+        <v>0.07158294409740963</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1612976339935979</v>
+        <v>0.1571258912539966</v>
       </c>
     </row>
     <row r="13">
@@ -3063,19 +3063,19 @@
         <v>4188</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1048</v>
+        <v>1060</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>10074</v>
+        <v>9801</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04042854833360186</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01011530421639447</v>
+        <v>0.01023624397265433</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09723910431424213</v>
+        <v>0.09460837251454987</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>14</v>
@@ -3084,19 +3084,19 @@
         <v>15111</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>9457</v>
+        <v>8550</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>25384</v>
+        <v>23547</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1071571607854722</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06706139467132331</v>
+        <v>0.06062758547661062</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1800044378056912</v>
+        <v>0.1669749612656583</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>18</v>
@@ -3105,19 +3105,19 @@
         <v>19299</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>12477</v>
+        <v>11853</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>29592</v>
+        <v>29345</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07889678499473066</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05100614855947792</v>
+        <v>0.04845527148823024</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1209720213996017</v>
+        <v>0.1199643859866423</v>
       </c>
     </row>
     <row r="14">
@@ -3134,19 +3134,19 @@
         <v>91753</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>82009</v>
+        <v>81760</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>97554</v>
+        <v>98160</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8856651342877205</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7916114698263096</v>
+        <v>0.7892055254285087</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9416616880174323</v>
+        <v>0.9475043472588546</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>99</v>
@@ -3155,19 +3155,19 @@
         <v>107491</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>95249</v>
+        <v>96618</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>116992</v>
+        <v>117450</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7622471043035977</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.675434546865432</v>
+        <v>0.6851398138316742</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8296165691048525</v>
+        <v>0.8328669496986523</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>180</v>
@@ -3176,19 +3176,19 @@
         <v>199244</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>184602</v>
+        <v>187485</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>210713</v>
+        <v>211299</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8145161352117409</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7546584031200796</v>
+        <v>0.7664438069632301</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8614004605083307</v>
+        <v>0.8637960262687633</v>
       </c>
     </row>
     <row r="15">
@@ -3280,19 +3280,19 @@
         <v>4979</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1939</v>
+        <v>1899</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11056</v>
+        <v>10829</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03080698950595148</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01199830311543599</v>
+        <v>0.0117477588211039</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06840985217820496</v>
+        <v>0.0670068791571433</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>15</v>
@@ -3301,19 +3301,19 @@
         <v>15695</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>9373</v>
+        <v>9412</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>24700</v>
+        <v>24699</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06438863347578394</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03845308961286931</v>
+        <v>0.03861434502234491</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1013323316937932</v>
+        <v>0.1013277372187456</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>20</v>
@@ -3322,19 +3322,19 @@
         <v>20674</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>13156</v>
+        <v>13366</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>30964</v>
+        <v>31023</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05100003605979334</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.032454682039901</v>
+        <v>0.03297403875460016</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0763858777746621</v>
+        <v>0.07653138746803462</v>
       </c>
     </row>
     <row r="17">
@@ -3351,19 +3351,19 @@
         <v>13322</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7440</v>
+        <v>7306</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>23145</v>
+        <v>22617</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.08243015508864579</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04603325201075657</v>
+        <v>0.04520878792245044</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1432095672119287</v>
+        <v>0.1399436511109059</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>19</v>
@@ -3372,19 +3372,19 @@
         <v>19518</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>12414</v>
+        <v>12044</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>30025</v>
+        <v>29219</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0800722419834666</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05092940905808479</v>
+        <v>0.04940959525881827</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1231789841483047</v>
+        <v>0.1198727943279563</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>31</v>
@@ -3393,19 +3393,19 @@
         <v>32839</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>22019</v>
+        <v>23467</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>45011</v>
+        <v>45094</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.08101231356946435</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05431813482921907</v>
+        <v>0.05789115685963051</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1110381614549153</v>
+        <v>0.1112426041217004</v>
       </c>
     </row>
     <row r="18">
@@ -3422,19 +3422,19 @@
         <v>143312</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>133524</v>
+        <v>133116</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>150198</v>
+        <v>150183</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.8867628554054028</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8261949328762037</v>
+        <v>0.8236739909407088</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9293671808942032</v>
+        <v>0.9292775888717653</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>197</v>
@@ -3443,19 +3443,19 @@
         <v>208538</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>197081</v>
+        <v>196740</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>218333</v>
+        <v>217848</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.8555391245407494</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8085377567586921</v>
+        <v>0.8071379073974947</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8957246065686787</v>
+        <v>0.8937349554423385</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>327</v>
@@ -3464,19 +3464,19 @@
         <v>351850</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>336851</v>
+        <v>336208</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>364822</v>
+        <v>364315</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8679876503707423</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8309860366821131</v>
+        <v>0.829399638729036</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8999883359209371</v>
+        <v>0.898736665078443</v>
       </c>
     </row>
     <row r="19">
@@ -3568,19 +3568,19 @@
         <v>23169</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>14748</v>
+        <v>14497</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>34654</v>
+        <v>36374</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.04140009959390366</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02635255645682084</v>
+        <v>0.02590358745420508</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0619224768128545</v>
+        <v>0.06499493329545651</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>63</v>
@@ -3589,19 +3589,19 @@
         <v>69754</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>53869</v>
+        <v>54005</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>86578</v>
+        <v>87406</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.09388439932385256</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.07250379418247456</v>
+        <v>0.07268783452829472</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1165283967453074</v>
+        <v>0.1176435140930373</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>83</v>
@@ -3610,19 +3610,19 @@
         <v>92923</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>73994</v>
+        <v>75643</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>112708</v>
+        <v>113347</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.07133573773278658</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.05680454518144153</v>
+        <v>0.05807037997659724</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.08652484652396178</v>
+        <v>0.08701551649876807</v>
       </c>
     </row>
     <row r="21">
@@ -3639,19 +3639,19 @@
         <v>35798</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>24755</v>
+        <v>24491</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>50382</v>
+        <v>49110</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.06396628166165427</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.04423338333675834</v>
+        <v>0.04376155583048146</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.09002643765581538</v>
+        <v>0.08775258083303672</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>67</v>
@@ -3660,19 +3660,19 @@
         <v>72783</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>58337</v>
+        <v>56640</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>91656</v>
+        <v>90763</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.09796169023343104</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.07851832553004913</v>
+        <v>0.07623425822911185</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1233636188008719</v>
+        <v>0.1221622291704495</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>99</v>
@@ -3681,19 +3681,19 @@
         <v>108581</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>90140</v>
+        <v>88762</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>132409</v>
+        <v>128922</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.08335635173259925</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.06919955831259772</v>
+        <v>0.06814145227866117</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.101649209468173</v>
+        <v>0.09897223979214088</v>
       </c>
     </row>
     <row r="22">
@@ -3710,19 +3710,19 @@
         <v>500670</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>483917</v>
+        <v>483579</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>514630</v>
+        <v>514774</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.894633618744442</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8646977517011744</v>
+        <v>0.86409459394592</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9195783225516366</v>
+        <v>0.919835544114423</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>564</v>
@@ -3731,19 +3731,19 @@
         <v>600438</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>574699</v>
+        <v>578757</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>620842</v>
+        <v>619559</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8081539104427163</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7735108368886087</v>
+        <v>0.7789730093071955</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8356163290230794</v>
+        <v>0.8338891473275392</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1016</v>
@@ -3752,19 +3752,19 @@
         <v>1101108</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1073333</v>
+        <v>1076362</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1128631</v>
+        <v>1128499</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8453079105346142</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8239850756091881</v>
+        <v>0.826310761424547</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8664369324935739</v>
+        <v>0.8663352958045112</v>
       </c>
     </row>
     <row r="23">
@@ -4096,19 +4096,19 @@
         <v>6182</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2650</v>
+        <v>2597</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>12758</v>
+        <v>11746</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04521304969305246</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0193819594639683</v>
+        <v>0.01899410579938598</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09330234971953963</v>
+        <v>0.08590748171949088</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -4117,19 +4117,19 @@
         <v>6847</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2359</v>
+        <v>2377</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12896</v>
+        <v>13831</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03949109537214505</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01360625681647249</v>
+        <v>0.01370709154951697</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07437501690919318</v>
+        <v>0.07976933287792058</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>13</v>
@@ -4138,19 +4138,19 @@
         <v>13030</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>7086</v>
+        <v>7030</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>21017</v>
+        <v>21680</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04201390412562085</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02284877457138445</v>
+        <v>0.02266944334646696</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06776860404054734</v>
+        <v>0.06990578341462293</v>
       </c>
     </row>
     <row r="5">
@@ -4167,19 +4167,19 @@
         <v>5869</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2368</v>
+        <v>2361</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>11243</v>
+        <v>11305</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04292497864442381</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01731995384937337</v>
+        <v>0.01726763485526843</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0822252216325155</v>
+        <v>0.08267642466653415</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>19</v>
@@ -4188,19 +4188,19 @@
         <v>21431</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>13748</v>
+        <v>13402</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>31869</v>
+        <v>31743</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.123597820632699</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07929078348754326</v>
+        <v>0.07729093786448543</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1837970988759039</v>
+        <v>0.1830740211937082</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>26</v>
@@ -4209,19 +4209,19 @@
         <v>27300</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>18536</v>
+        <v>18220</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>40270</v>
+        <v>38804</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.08802917738223773</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05977032415546431</v>
+        <v>0.05875041295542355</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1298497576014516</v>
+        <v>0.1251225141134381</v>
       </c>
     </row>
     <row r="6">
@@ -4238,19 +4238,19 @@
         <v>124683</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>117947</v>
+        <v>117550</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>129967</v>
+        <v>130427</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9118619716625237</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8626032668525059</v>
+        <v>0.8596980334631784</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9505064197772948</v>
+        <v>0.953874381525311</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>132</v>
@@ -4259,19 +4259,19 @@
         <v>145113</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>134235</v>
+        <v>134121</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>153840</v>
+        <v>154007</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.8369110839951559</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.7741723238872029</v>
+        <v>0.7735176491307258</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8872409549135526</v>
+        <v>0.888205545438817</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>266</v>
@@ -4280,19 +4280,19 @@
         <v>269795</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>256275</v>
+        <v>256513</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>280673</v>
+        <v>280738</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.8699569184921414</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8263605425699411</v>
+        <v>0.827127216177677</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9050328880850381</v>
+        <v>0.9052416427236233</v>
       </c>
     </row>
     <row r="7">
@@ -4384,19 +4384,19 @@
         <v>4303</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1697</v>
+        <v>1709</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>9617</v>
+        <v>9569</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02608544286637201</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01029019277893757</v>
+        <v>0.01036258316295549</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.05830596159609751</v>
+        <v>0.05801360377792516</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>4</v>
@@ -4405,19 +4405,19 @@
         <v>5470</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1951</v>
+        <v>2019</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>14439</v>
+        <v>13444</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02495742193637071</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.008904169048414474</v>
+        <v>0.009211631380676367</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.06588355249182258</v>
+        <v>0.06134464220814984</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>9</v>
@@ -4426,19 +4426,19 @@
         <v>9772</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4472</v>
+        <v>4550</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>18683</v>
+        <v>18590</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02544181345965508</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01164222596848083</v>
+        <v>0.01184674677574813</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.04863984471109571</v>
+        <v>0.04839943172903705</v>
       </c>
     </row>
     <row r="9">
@@ -4455,19 +4455,19 @@
         <v>10056</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5256</v>
+        <v>5144</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>17367</v>
+        <v>17751</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.06096453135520485</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.03186881696118882</v>
+        <v>0.0311882564644542</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1052940319609843</v>
+        <v>0.1076217689319095</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>22</v>
@@ -4476,19 +4476,19 @@
         <v>28412</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>18647</v>
+        <v>18714</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>40494</v>
+        <v>40054</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1296399915209449</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.08508314114953884</v>
+        <v>0.08538994761527756</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1847677433383218</v>
+        <v>0.1827596219694685</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>33</v>
@@ -4497,19 +4497,19 @@
         <v>38468</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>27477</v>
+        <v>27547</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>53068</v>
+        <v>53594</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1001495717271389</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0715357229895987</v>
+        <v>0.07171873247226283</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1381610855249607</v>
+        <v>0.1395311660824282</v>
       </c>
     </row>
     <row r="10">
@@ -4526,19 +4526,19 @@
         <v>150583</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>142470</v>
+        <v>142530</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>156368</v>
+        <v>156385</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9129500257784231</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8637622551296624</v>
+        <v>0.8641269724772929</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.948024948381973</v>
+        <v>0.9481252284697196</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>156</v>
@@ -4547,19 +4547,19 @@
         <v>185281</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>171382</v>
+        <v>173032</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>196579</v>
+        <v>195545</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8454025865426844</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7819851550175594</v>
+        <v>0.7895125685559997</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8969514996878861</v>
+        <v>0.8922358948035217</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>315</v>
@@ -4568,19 +4568,19 @@
         <v>335864</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>320117</v>
+        <v>320898</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>348225</v>
+        <v>348495</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8744086148132061</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.833412864896878</v>
+        <v>0.8354463482344313</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9065892049558114</v>
+        <v>0.9072941116330892</v>
       </c>
     </row>
     <row r="11">
@@ -4672,19 +4672,19 @@
         <v>3624</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>923</v>
+        <v>936</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8429</v>
+        <v>8291</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.03150522553241233</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.008019603019756119</v>
+        <v>0.008135727990861642</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.07327747823564427</v>
+        <v>0.07206950263470058</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>13</v>
@@ -4693,19 +4693,19 @@
         <v>16628</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>9526</v>
+        <v>9766</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>26636</v>
+        <v>27552</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1166058291493057</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.06680619569562433</v>
+        <v>0.06848879655492186</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.186795024443434</v>
+        <v>0.1932158403357711</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>17</v>
@@ -4714,19 +4714,19 @@
         <v>20252</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>11924</v>
+        <v>12766</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>30808</v>
+        <v>32114</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.07860749136399499</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.04628283101289239</v>
+        <v>0.049550733410333</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1195832161394813</v>
+        <v>0.1246502190289036</v>
       </c>
     </row>
     <row r="13">
@@ -4743,19 +4743,19 @@
         <v>4804</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1833</v>
+        <v>1722</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>10801</v>
+        <v>10158</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04176105159408468</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01593457556766457</v>
+        <v>0.01496863178612538</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09388995099323769</v>
+        <v>0.08829955653221926</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>15</v>
@@ -4764,19 +4764,19 @@
         <v>17521</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>10527</v>
+        <v>10266</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>25922</v>
+        <v>26810</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1228723251722282</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07382414261002584</v>
+        <v>0.07199014960615814</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1817853914783993</v>
+        <v>0.1880152620698911</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>20</v>
@@ -4785,19 +4785,19 @@
         <v>22325</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>13824</v>
+        <v>13908</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>33548</v>
+        <v>33604</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08665526629572434</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05365959637933233</v>
+        <v>0.05398329414104401</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1302164385060155</v>
+        <v>0.1304329032452508</v>
       </c>
     </row>
     <row r="14">
@@ -4814,19 +4814,19 @@
         <v>106607</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>100313</v>
+        <v>99819</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>111197</v>
+        <v>111109</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.926733722873503</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.872018580896621</v>
+        <v>0.86772983699286</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9666361857712541</v>
+        <v>0.9658730129560145</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>90</v>
@@ -4835,19 +4835,19 @@
         <v>108447</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>97241</v>
+        <v>96824</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>118663</v>
+        <v>117631</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7605218456784661</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6819369657373112</v>
+        <v>0.679012269236328</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.832163728096127</v>
+        <v>0.8249262098305685</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>195</v>
@@ -4856,19 +4856,19 @@
         <v>215054</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>202223</v>
+        <v>200053</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>227454</v>
+        <v>226279</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8347372423402807</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7849309372794154</v>
+        <v>0.7765114280720593</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8828669832359142</v>
+        <v>0.8783052743372416</v>
       </c>
     </row>
     <row r="15">
@@ -4960,19 +4960,19 @@
         <v>4646</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1603</v>
+        <v>1586</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12749</v>
+        <v>11234</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02660746222975764</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.009179681763974028</v>
+        <v>0.009080438062402878</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.073009935740399</v>
+        <v>0.06433622356214855</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -4981,19 +4981,19 @@
         <v>11352</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5267</v>
+        <v>5226</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>21929</v>
+        <v>21811</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04675622316401069</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02169456754291296</v>
+        <v>0.02152548590651715</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0903248202402267</v>
+        <v>0.08983801713176</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>12</v>
@@ -5002,19 +5002,19 @@
         <v>15998</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>8417</v>
+        <v>9055</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>28313</v>
+        <v>27892</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03832702709773617</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02016648231371287</v>
+        <v>0.02169274048321253</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06783216776460656</v>
+        <v>0.06682233756597404</v>
       </c>
     </row>
     <row r="17">
@@ -5031,19 +5031,19 @@
         <v>7684</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3597</v>
+        <v>3911</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>14080</v>
+        <v>14532</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.04400376511244271</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02059829420585214</v>
+        <v>0.02239559817467907</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.08063563844781123</v>
+        <v>0.08321883684843386</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>16</v>
@@ -5052,19 +5052,19 @@
         <v>21680</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>12729</v>
+        <v>12223</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>32671</v>
+        <v>34834</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.08929865304495226</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05243093789408388</v>
+        <v>0.05034652783770237</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1345691507234302</v>
+        <v>0.1434796208528181</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>25</v>
@@ -5073,19 +5073,19 @@
         <v>29364</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>20311</v>
+        <v>19605</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>43173</v>
+        <v>43262</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.07034962226192319</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04866003227586256</v>
+        <v>0.04696897227322815</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1034323833142015</v>
+        <v>0.1036470540278911</v>
       </c>
     </row>
     <row r="18">
@@ -5102,19 +5102,19 @@
         <v>162288</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>153316</v>
+        <v>153936</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>167621</v>
+        <v>167717</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9293887726577996</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8780054595895479</v>
+        <v>0.8815573183981134</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9599288235390907</v>
+        <v>0.9604822408941056</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>174</v>
@@ -5123,19 +5123,19 @@
         <v>209749</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>194943</v>
+        <v>195672</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>220232</v>
+        <v>221183</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.8639451237910371</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8029578728192602</v>
+        <v>0.8059599778332041</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9071225475543835</v>
+        <v>0.9110399945395486</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>351</v>
@@ -5144,19 +5144,19 @@
         <v>372038</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>356431</v>
+        <v>356493</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>384609</v>
+        <v>384644</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8913233506403406</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8539312677640832</v>
+        <v>0.8540792365336435</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9214407282605702</v>
+        <v>0.9215239873798751</v>
       </c>
     </row>
     <row r="19">
@@ -5248,19 +5248,19 @@
         <v>18755</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>11715</v>
+        <v>11986</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>29182</v>
+        <v>29377</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.03171685474501226</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01981163887630655</v>
+        <v>0.02026967337181888</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0493500129903854</v>
+        <v>0.0496802614622126</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>31</v>
@@ -5269,19 +5269,19 @@
         <v>40296</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>28815</v>
+        <v>27712</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>55579</v>
+        <v>58165</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.05179917906100211</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.03704105968757421</v>
+        <v>0.03562282524950214</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.07144518551031055</v>
+        <v>0.07476841738048746</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>51</v>
@@ -5290,19 +5290,19 @@
         <v>59051</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>44784</v>
+        <v>45126</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>75653</v>
+        <v>77009</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.04312642930725259</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03270677846578283</v>
+        <v>0.03295651142911977</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.05525132347850564</v>
+        <v>0.05624112845233348</v>
       </c>
     </row>
     <row r="21">
@@ -5319,19 +5319,19 @@
         <v>28413</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>19107</v>
+        <v>19242</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>39752</v>
+        <v>39016</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.04804893956878022</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.03231147811661266</v>
+        <v>0.03254012436656681</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.06722552999227387</v>
+        <v>0.0659799914810496</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>72</v>
@@ -5340,19 +5340,19 @@
         <v>89044</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>71215</v>
+        <v>69706</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>111540</v>
+        <v>107686</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1144627876226469</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.09154418874805764</v>
+        <v>0.08960407876361308</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1433798561876048</v>
+        <v>0.1384261432647763</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>104</v>
@@ -5361,19 +5361,19 @@
         <v>117457</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>97379</v>
+        <v>97042</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>142351</v>
+        <v>138322</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.08578131254577454</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.07111832908572178</v>
+        <v>0.07087210858115035</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1039621369807169</v>
+        <v>0.1010192761523449</v>
       </c>
     </row>
     <row r="22">
@@ -5390,19 +5390,19 @@
         <v>544160</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>528893</v>
+        <v>531107</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>555927</v>
+        <v>555383</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9202342056862075</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8944161969723875</v>
+        <v>0.8981595853073381</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9401331539797569</v>
+        <v>0.9392131519191167</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>552</v>
@@ -5411,19 +5411,19 @@
         <v>648591</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>624452</v>
+        <v>626192</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>669670</v>
+        <v>670607</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.833738033316351</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8027084273475535</v>
+        <v>0.8049456857445921</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8608350573615716</v>
+        <v>0.8620397062888182</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1127</v>
@@ -5432,19 +5432,19 @@
         <v>1192751</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1166156</v>
+        <v>1166110</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1218164</v>
+        <v>1216752</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8710922581469729</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8516691790151376</v>
+        <v>0.8516361054120309</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8896517075189228</v>
+        <v>0.8886206140863073</v>
       </c>
     </row>
     <row r="23">
@@ -5776,19 +5776,19 @@
         <v>5887</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2662</v>
+        <v>2739</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10802</v>
+        <v>10797</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.03604650145875054</v>
+        <v>0.03604650145875053</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01630117964620152</v>
+        <v>0.01677270828318346</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06614081100907841</v>
+        <v>0.0661149348426746</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>50</v>
@@ -5797,19 +5797,19 @@
         <v>22155</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>16212</v>
+        <v>16919</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>29230</v>
+        <v>29310</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1159782748129979</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08486684034215514</v>
+        <v>0.08857010811143216</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1530153359416268</v>
+        <v>0.15343213157091</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>60</v>
@@ -5818,19 +5818,19 @@
         <v>28042</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>21356</v>
+        <v>21235</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>36450</v>
+        <v>36089</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.07913830233845381</v>
+        <v>0.07913830233845383</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06026852499142686</v>
+        <v>0.0599265827958041</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1028652773621865</v>
+        <v>0.1018465253881051</v>
       </c>
     </row>
     <row r="5">
@@ -5847,19 +5847,19 @@
         <v>14612</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>9573</v>
+        <v>9381</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>21356</v>
+        <v>21638</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.08947223451263461</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05861644581382628</v>
+        <v>0.05743860176598081</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1307635059248728</v>
+        <v>0.1324905189925563</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>68</v>
@@ -5868,19 +5868,19 @@
         <v>29154</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>22758</v>
+        <v>22577</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>35769</v>
+        <v>36090</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1526142748992056</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1191328335337186</v>
+        <v>0.118185500033128</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1872431710101751</v>
+        <v>0.1889244656810386</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>93</v>
@@ -5889,19 +5889,19 @@
         <v>43766</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>35499</v>
+        <v>35382</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>52992</v>
+        <v>53654</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1235125681283747</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1001831487305264</v>
+        <v>0.09985351669480218</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1495509559087905</v>
+        <v>0.151418049507515</v>
       </c>
     </row>
     <row r="6">
@@ -5918,19 +5918,19 @@
         <v>142815</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>135431</v>
+        <v>135119</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>148469</v>
+        <v>148965</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.8744812640286147</v>
+        <v>0.8744812640286149</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.829266172405427</v>
+        <v>0.8273601198555192</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9090985982379958</v>
+        <v>0.9121398011574909</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>328</v>
@@ -5939,19 +5939,19 @@
         <v>139720</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>130178</v>
+        <v>131706</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>147647</v>
+        <v>148450</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.7314074502877965</v>
+        <v>0.7314074502877964</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.6814558919852316</v>
+        <v>0.6894579454194191</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7729034225522459</v>
+        <v>0.7771096154445899</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>546</v>
@@ -5960,19 +5960,19 @@
         <v>282535</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>271491</v>
+        <v>271629</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>293147</v>
+        <v>293639</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.7973491295331715</v>
+        <v>0.7973491295331716</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.7661825626536788</v>
+        <v>0.7665720523142145</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8272958828175448</v>
+        <v>0.8286870715226086</v>
       </c>
     </row>
     <row r="7">
@@ -6064,19 +6064,19 @@
         <v>6040</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2896</v>
+        <v>3162</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>11125</v>
+        <v>11036</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.0338958376008389</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01625139746413135</v>
+        <v>0.01774091871436401</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.06242920118442742</v>
+        <v>0.06192742404510362</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>36</v>
@@ -6085,19 +6085,19 @@
         <v>19391</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>14072</v>
+        <v>13537</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>26533</v>
+        <v>25990</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.08026776336526481</v>
+        <v>0.08026776336526482</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.05825222175787027</v>
+        <v>0.05603747356051168</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1098327709121383</v>
+        <v>0.107586284344078</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>46</v>
@@ -6106,19 +6106,19 @@
         <v>25431</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>19004</v>
+        <v>18794</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>34707</v>
+        <v>33681</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.06058199097686181</v>
+        <v>0.06058199097686182</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.04527041846641151</v>
+        <v>0.04477186902810333</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.08267949527092178</v>
+        <v>0.08023516271326739</v>
       </c>
     </row>
     <row r="9">
@@ -6135,19 +6135,19 @@
         <v>12522</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7781</v>
+        <v>7829</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>19058</v>
+        <v>19085</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.07026519469359142</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.04366085946498926</v>
+        <v>0.04393432085472158</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1069462759771814</v>
+        <v>0.1070990439175896</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>64</v>
@@ -6156,19 +6156,19 @@
         <v>36432</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>29131</v>
+        <v>27721</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>45590</v>
+        <v>44963</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1508115551758487</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1205879584378238</v>
+        <v>0.1147524469479149</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1887198394809431</v>
+        <v>0.1861231410848152</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>84</v>
@@ -6177,19 +6177,19 @@
         <v>48954</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>38372</v>
+        <v>39606</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>58636</v>
+        <v>59549</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1166180794245273</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.09140917189649679</v>
+        <v>0.09435096037948383</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1396835525618019</v>
+        <v>0.1418581046799253</v>
       </c>
     </row>
     <row r="10">
@@ -6206,19 +6206,19 @@
         <v>159642</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>151247</v>
+        <v>152460</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>165174</v>
+        <v>165509</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.8958389677055696</v>
+        <v>0.8958389677055698</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8487300364707053</v>
+        <v>0.8555354533640106</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9268808625059806</v>
+        <v>0.9287601024394614</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>348</v>
@@ -6227,19 +6227,19 @@
         <v>185751</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>174743</v>
+        <v>174653</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>193695</v>
+        <v>194673</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.7689206814588866</v>
+        <v>0.7689206814588865</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7233530083831817</v>
+        <v>0.7229783740261873</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8018027116461628</v>
+        <v>0.805851869813238</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>572</v>
@@ -6248,19 +6248,19 @@
         <v>345393</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>333174</v>
+        <v>334373</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>356963</v>
+        <v>357084</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8227999295986109</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7936920280704018</v>
+        <v>0.7965472540649082</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8503616551184371</v>
+        <v>0.8506487823057428</v>
       </c>
     </row>
     <row r="11">
@@ -6352,19 +6352,19 @@
         <v>4131</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9908</v>
+        <v>9315</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02585164061371585</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.005970109907718906</v>
+        <v>0.005948460708744896</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.06200714403483752</v>
+        <v>0.05830001362382234</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>23</v>
@@ -6373,19 +6373,19 @@
         <v>15592</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>10316</v>
+        <v>10143</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>22987</v>
+        <v>23352</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.089449108283496</v>
+        <v>0.08944910828349602</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.05917936291799084</v>
+        <v>0.05819039338241893</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1318702354862876</v>
+        <v>0.1339683228109829</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>27</v>
@@ -6394,19 +6394,19 @@
         <v>19723</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>13037</v>
+        <v>13635</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>28836</v>
+        <v>28944</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.05903317816992127</v>
+        <v>0.05903317816992128</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0390224653772462</v>
+        <v>0.04081201733688196</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.08631020305161551</v>
+        <v>0.0866338026224497</v>
       </c>
     </row>
     <row r="13">
@@ -6423,19 +6423,19 @@
         <v>9362</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5114</v>
+        <v>5100</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>15491</v>
+        <v>15453</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05859304603031434</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03200754291276719</v>
+        <v>0.03191501206168244</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09694820887952309</v>
+        <v>0.09670849071212621</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>33</v>
@@ -6444,19 +6444,19 @@
         <v>20428</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>15058</v>
+        <v>14375</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>26827</v>
+        <v>28163</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1171888633555059</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08638569300393398</v>
+        <v>0.08246549165589825</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1539020471713007</v>
+        <v>0.1615684214878426</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>45</v>
@@ -6465,19 +6465,19 @@
         <v>29790</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>22385</v>
+        <v>21916</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>39644</v>
+        <v>40133</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.08916500721763494</v>
+        <v>0.08916500721763493</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06700115114653141</v>
+        <v>0.06559736720251182</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1186585382594658</v>
+        <v>0.1201228924228776</v>
       </c>
     </row>
     <row r="14">
@@ -6494,19 +6494,19 @@
         <v>146292</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>139091</v>
+        <v>138797</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>151621</v>
+        <v>151845</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9155553133559696</v>
+        <v>0.9155553133559698</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8704864868064759</v>
+        <v>0.8686457566315917</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9489075244749069</v>
+        <v>0.9503105922069657</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>231</v>
@@ -6515,19 +6515,19 @@
         <v>138293</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>129364</v>
+        <v>129163</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>146207</v>
+        <v>146578</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7933620283609981</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7421338824699181</v>
+        <v>0.7409813276846036</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8387602444231479</v>
+        <v>0.8408901286880149</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>408</v>
@@ -6536,19 +6536,19 @@
         <v>284585</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>273619</v>
+        <v>273572</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>295573</v>
+        <v>294447</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8518018146124438</v>
+        <v>0.8518018146124436</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8189790218517152</v>
+        <v>0.8188379631486703</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8846885134476173</v>
+        <v>0.8813203918190583</v>
       </c>
     </row>
     <row r="15">
@@ -6640,19 +6640,19 @@
         <v>6394</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3312</v>
+        <v>3490</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11412</v>
+        <v>11239</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02972645245642542</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01540007083042105</v>
+        <v>0.01622560104522151</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05305636968950855</v>
+        <v>0.05225334346632082</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>31</v>
@@ -6661,19 +6661,19 @@
         <v>18755</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>13133</v>
+        <v>12638</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>27011</v>
+        <v>26846</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.06349726435042424</v>
+        <v>0.06349726435042423</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04446504114465195</v>
+        <v>0.04278854996103596</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09144893672044786</v>
+        <v>0.09089066966376751</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>42</v>
@@ -6682,19 +6682,19 @@
         <v>25149</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>17834</v>
+        <v>17569</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>33833</v>
+        <v>33919</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04926735300072345</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03493655574057614</v>
+        <v>0.03441856678849125</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06628038036910595</v>
+        <v>0.06644914916119157</v>
       </c>
     </row>
     <row r="17">
@@ -6711,19 +6711,19 @@
         <v>11409</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6935</v>
+        <v>7000</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>17190</v>
+        <v>17585</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.05304470714961722</v>
+        <v>0.05304470714961724</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03224336672789656</v>
+        <v>0.03254434536140973</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.07992171287331322</v>
+        <v>0.08175691384177626</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>73</v>
@@ -6732,19 +6732,19 @@
         <v>42734</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>34172</v>
+        <v>34169</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>53102</v>
+        <v>52446</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1446806067916676</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.115693444939801</v>
+        <v>0.1156843231466951</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1797849977841503</v>
+        <v>0.1775631134637618</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>91</v>
@@ -6753,19 +6753,19 @@
         <v>54143</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>43557</v>
+        <v>44343</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>64878</v>
+        <v>65184</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1060682473242847</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.08533017338845431</v>
+        <v>0.08686884840911342</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1270985885553051</v>
+        <v>0.1276985752997263</v>
       </c>
     </row>
     <row r="18">
@@ -6782,19 +6782,19 @@
         <v>197286</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>190386</v>
+        <v>189859</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>202825</v>
+        <v>202715</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9172288403939574</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8851496009825812</v>
+        <v>0.8827005788881861</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.94297958112146</v>
+        <v>0.9424713675015642</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>420</v>
@@ -6803,19 +6803,19 @@
         <v>233877</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>222240</v>
+        <v>223112</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>244023</v>
+        <v>244700</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.7918221288579083</v>
+        <v>0.791822128857908</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.7524212840827148</v>
+        <v>0.7553737135816228</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8261730239992094</v>
+        <v>0.8284625877105276</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>718</v>
@@ -6824,19 +6824,19 @@
         <v>431162</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>417900</v>
+        <v>418499</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>442503</v>
+        <v>444286</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8446643996749919</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8186824886499462</v>
+        <v>0.8198558286474655</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.866880694315499</v>
+        <v>0.8703744040332181</v>
       </c>
     </row>
     <row r="19">
@@ -6928,19 +6928,19 @@
         <v>22452</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>16057</v>
+        <v>15258</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>32533</v>
+        <v>32574</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.03134012214110667</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02241315628439647</v>
+        <v>0.02129807332991084</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.04541174973525572</v>
+        <v>0.0454699012672603</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>140</v>
@@ -6949,19 +6949,19 @@
         <v>75893</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>63457</v>
+        <v>64347</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>90117</v>
+        <v>88694</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.08411218148373552</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.07032938146989094</v>
+        <v>0.07131602758313424</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.09987669705631555</v>
+        <v>0.09829949093453003</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>175</v>
@@ -6970,19 +6970,19 @@
         <v>98345</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>84612</v>
+        <v>84672</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>115820</v>
+        <v>113713</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.06075636014868546</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.05227232802115744</v>
+        <v>0.05230952761111263</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.07155242381346349</v>
+        <v>0.07025075212489014</v>
       </c>
     </row>
     <row r="21">
@@ -6999,19 +6999,19 @@
         <v>47905</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>37796</v>
+        <v>38868</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>59375</v>
+        <v>60810</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.06687015455467211</v>
+        <v>0.06687015455467213</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.05275914524580293</v>
+        <v>0.05425581938311361</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.08288104337646481</v>
+        <v>0.08488359026293332</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>238</v>
@@ -7020,19 +7020,19 @@
         <v>128747</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>114645</v>
+        <v>112600</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>145980</v>
+        <v>144068</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.142690612953625</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1270611392649633</v>
+        <v>0.1247946113587635</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.161790020257741</v>
+        <v>0.159670519634531</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>313</v>
@@ -7041,19 +7041,19 @@
         <v>176652</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>158654</v>
+        <v>157812</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>197691</v>
+        <v>197347</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1091340471882056</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.09801456954327405</v>
+        <v>0.09749481886077785</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1221317676151385</v>
+        <v>0.1219186998022161</v>
       </c>
     </row>
     <row r="22">
@@ -7070,19 +7070,19 @@
         <v>646034</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>631350</v>
+        <v>629708</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>658419</v>
+        <v>658014</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.9017897233042212</v>
+        <v>0.9017897233042211</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8812931327235176</v>
+        <v>0.8790009370366278</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9190778979066417</v>
+        <v>0.9185124203668305</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1327</v>
@@ -7091,19 +7091,19 @@
         <v>697642</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>677801</v>
+        <v>678459</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>716749</v>
+        <v>714832</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7731972055626395</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7512075302442467</v>
+        <v>0.751936256970811</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7943736089753084</v>
+        <v>0.792249142780095</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2244</v>
@@ -7112,19 +7112,19 @@
         <v>1343676</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1318491</v>
+        <v>1321089</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1366273</v>
+        <v>1367817</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.830109592663109</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8145503534429703</v>
+        <v>0.8161552845150194</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8440700029159615</v>
+        <v>0.8450237546400647</v>
       </c>
     </row>
     <row r="23">
